--- a/Single-hop dataset/Gemini-evaluation.xlsx
+++ b/Single-hop dataset/Gemini-evaluation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\Berkeley\0AI\LLM_Responses\Single-hop dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\Berkeley\0AI\Datasets_and_evaluation\Single-hop dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58CE079-FF6C-41E0-B05E-65991856959D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B67AE5-30DC-4FF1-A5A6-8F8FB9122A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6650" yWindow="-16900" windowWidth="19200" windowHeight="11260" xr2:uid="{080FD39B-4D7A-486D-AEB9-10F3C18C7256}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{080FD39B-4D7A-486D-AEB9-10F3C18C7256}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41AA456-1ABB-438A-81DD-02C0B28A0738}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -867,7 +867,10 @@
         <v>20</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>55</v>
@@ -1048,10 +1051,7 @@
         <v>37</v>
       </c>
       <c r="B40">
-        <v>19</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F40" t="s">
         <v>55</v>
@@ -1117,10 +1117,7 @@
         <v>43</v>
       </c>
       <c r="B46">
-        <v>19</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F46" t="s">
         <v>55</v>
@@ -1153,7 +1150,10 @@
         <v>46</v>
       </c>
       <c r="B49">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>55</v>
